--- a/xlsx/联合国安全理事会常任理事国_intext.xlsx
+++ b/xlsx/联合国安全理事会常任理事国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>联合国安全理事会常任理事国</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B_(%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F)</t>
   </si>
   <si>
-    <t>常任理事國 (國際聯盟)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联合国安全理事会常任理事国</t>
+    <t>常任理事国 (国际联盟)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安全理事會</t>
+    <t>联合国安全理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第二次世界大戰)</t>
+    <t>同盟国 (第二次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%94%BF%E6%9D%83</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD%E8%81%94%E7%9B%9F</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%9F%BA%C2%B7%E9%BB%91%E5%88%A9</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
+    <t>美国国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E6%8F%90%E5%8B%92%E6%A3%AE</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E4%BB%A3%E8%BE%A6</t>
   </si>
   <si>
-    <t>臨時代辦</t>
+    <t>临时代办</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%85%8B%E5%BC%B7</t>
   </si>
   <si>
-    <t>李克強</t>
+    <t>李克强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛及北愛爾蘭聯合王國</t>
+    <t>大不列颠及北爱尔兰联合王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%90%9B%E4%B8%BB</t>
@@ -251,9 +251,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Fran%C3%A7ois_Delattre</t>
   </si>
   <si>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -383,9 +380,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
@@ -407,15 +401,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
-    <t>联合国安全理事会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%90%A6%E5%86%B3%E6%9D%83</t>
   </si>
   <si>
-    <t>联合国安全理事会否决权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
   </si>
   <si>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>核大國</t>
+    <t>核大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:UNSC</t>
@@ -485,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -515,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -527,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2047,7 +2035,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2073,10 +2061,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2102,10 +2090,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2131,10 +2119,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2160,10 +2148,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2189,10 +2177,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -2218,10 +2206,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -2247,10 +2235,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2276,10 +2264,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2305,10 +2293,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -2334,10 +2322,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2363,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2392,10 +2380,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2421,10 +2409,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2450,10 +2438,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2479,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2508,10 +2496,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2537,10 +2525,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2566,10 +2554,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2595,10 +2583,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2624,10 +2612,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2653,10 +2641,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2682,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2711,10 +2699,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>27</v>
@@ -2740,10 +2728,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2769,10 +2757,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2798,10 +2786,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
         <v>15</v>
@@ -2827,10 +2815,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2856,10 +2844,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2885,10 +2873,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
         <v>87</v>
-      </c>
-      <c r="F69" t="s">
-        <v>88</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2914,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" t="s">
         <v>111</v>
-      </c>
-      <c r="F70" t="s">
-        <v>112</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2943,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2972,10 +2960,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3001,10 +2989,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
         <v>17</v>
@@ -3030,10 +3018,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3059,10 +3047,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3088,10 +3076,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3117,10 +3105,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3146,10 +3134,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3175,10 +3163,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3204,10 +3192,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3233,10 +3221,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" t="s">
         <v>113</v>
-      </c>
-      <c r="F81" t="s">
-        <v>114</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -3262,10 +3250,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3291,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3320,10 +3308,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3349,10 +3337,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3378,10 +3366,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3436,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3465,10 +3453,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3494,10 +3482,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3523,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3552,10 +3540,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3581,10 +3569,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3610,10 +3598,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3639,10 +3627,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3668,10 +3656,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>

--- a/xlsx/联合国安全理事会常任理事国_intext.xlsx
+++ b/xlsx/联合国安全理事会常任理事国_intext.xlsx
@@ -29,7 +29,7 @@
     <t>常任理事國 (國際聯盟)</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国安全理事会常任理事国</t>
+    <t>体育运动_体育运动_南非_联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83</t>
